--- a/实验结果(4-27).xlsx
+++ b/实验结果(4-27).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12570" activeTab="8"/>
+    <workbookView windowWidth="11424" windowHeight="9515" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="4.19" sheetId="1" r:id="rId1"/>
@@ -187,14 +187,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -217,7 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +230,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +309,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +337,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -262,99 +354,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,13 +381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,61 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,42 +447,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -519,7 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,19 +471,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,13 +501,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,56 +621,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,6 +653,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,151 +720,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -872,10 +872,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -887,13 +887,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,10 +905,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -926,19 +926,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -953,16 +953,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -971,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,115 +980,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1204,25 +1204,25 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0.005</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>0.007</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>0.022</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>0.095</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>0.185</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>0.28</c:v>
                 </c:pt>
               </c:numCache>
@@ -1234,7 +1234,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1331,25 +1331,25 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0.005</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>0.007</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>0.022</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>0.095</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>0.185</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>0.28</c:v>
                 </c:pt>
               </c:numCache>
@@ -1361,25 +1361,25 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -1388,7 +1388,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1408,7 +1407,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1470,7 +1468,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1592,7 +1589,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1754,25 +1751,25 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0.043</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>0.069</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>0.082</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>0.162</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>0.256</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>0.295</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>0.392</c:v>
                 </c:pt>
               </c:numCache>
@@ -1784,25 +1781,25 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>0.005</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>0.07</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1811,7 +1808,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1831,7 +1827,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1893,7 +1888,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2015,7 +2009,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2057,7 +2051,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2092,14 +2086,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5B9BD5">
-                <a:alpha val="100000"/>
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2111,22 +2100,27 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:noFill/>
               <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2150,7 +2144,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:srgbClr val="787878">
                           <a:alpha val="100000"/>
@@ -2171,28 +2165,28 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0.042</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>0.064</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>0.152</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>0.232</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>0.302</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
+                <c:pt idx="7">
                   <c:v>0.591</c:v>
                 </c:pt>
               </c:numCache>
@@ -2204,28 +2198,28 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>0.005</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>0.07</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
+                <c:pt idx="7">
                   <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
@@ -2234,7 +2228,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2254,7 +2247,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2291,7 +2283,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" kern="1200">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2318,7 +2310,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2355,7 +2346,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" kern="1200">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3556,8 +3547,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3126740" y="2515235"/>
-        <a:ext cx="4694555" cy="2472690"/>
+        <a:off x="2852420" y="2540000"/>
+        <a:ext cx="4214495" cy="2499360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3586,8 +3577,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3187700" y="38100"/>
-        <a:ext cx="4816475" cy="2309495"/>
+        <a:off x="2913380" y="38100"/>
+        <a:ext cx="4336415" cy="2332355"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3621,8 +3612,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2844800" y="3124200"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="2614295" y="3718560"/>
+        <a:ext cx="4110990" cy="2857500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3640,7 +3631,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3896,17 +3887,17 @@
   <sheetPr/>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.88333333333333" style="27"/>
-    <col min="3" max="12" width="8.88333333333333" style="27" customWidth="1"/>
-    <col min="13" max="13" width="8.88333333333333" style="27"/>
-    <col min="14" max="20" width="8.88333333333333" style="27" customWidth="1"/>
-    <col min="21" max="16384" width="8.88333333333333" style="27"/>
+    <col min="1" max="2" width="8.87962962962963" style="27"/>
+    <col min="3" max="12" width="8.87962962962963" style="27" customWidth="1"/>
+    <col min="13" max="13" width="8.87962962962963" style="27"/>
+    <col min="14" max="20" width="8.87962962962963" style="27" customWidth="1"/>
+    <col min="21" max="16384" width="8.87962962962963" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -4137,13 +4128,13 @@
         <f t="shared" ref="P4:P10" si="5">(N4*0.2816-0.0144)/5*1000</f>
         <v>11.7632</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="45">
         <v>0.49</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="45">
         <v>0.0489</v>
       </c>
-      <c r="S4" s="44">
+      <c r="S4" s="45">
         <v>0.486</v>
       </c>
       <c r="T4" s="42">
@@ -4408,7 +4399,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="1:25">
+    <row r="8" ht="28.8" spans="1:25">
       <c r="A8" s="30" t="s">
         <v>23</v>
       </c>
@@ -4482,7 +4473,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:25">
+    <row r="9" ht="28.8" spans="1:25">
       <c r="A9" s="30" t="s">
         <v>25</v>
       </c>
@@ -4563,7 +4554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:25">
+    <row r="10" ht="28.8" spans="1:25">
       <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
@@ -4894,17 +4885,17 @@
   <sheetPr/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.88333333333333" style="27"/>
-    <col min="3" max="9" width="8.88333333333333" style="27" customWidth="1"/>
+    <col min="1" max="2" width="8.87962962962963" style="27"/>
+    <col min="3" max="9" width="8.87962962962963" style="27" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="27" customWidth="1"/>
-    <col min="11" max="17" width="8.88333333333333" style="27" customWidth="1"/>
-    <col min="18" max="16384" width="8.88333333333333" style="27"/>
+    <col min="11" max="17" width="8.87962962962963" style="27" customWidth="1"/>
+    <col min="18" max="16384" width="8.87962962962963" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5042,12 +5033,12 @@
       <c r="O3" s="42">
         <v>0.684</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50">
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49">
         <f>AVERAGE(N3:P3)</f>
         <v>0.686</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="43">
         <f t="shared" ref="R3:R10" si="1">(108.1*Q3-0.2735)/5</f>
         <v>14.77662</v>
       </c>
@@ -5105,17 +5096,17 @@
         <f t="shared" ref="M4:M10" si="5">(K4*0.2816-0.0144)/5*1000</f>
         <v>13.79072</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="45">
         <v>0.31</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="45">
         <v>0.318</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="Q4" s="49">
         <f t="shared" ref="Q4:Q10" si="6">AVERAGE(N4:P4)</f>
         <v>0.314</v>
       </c>
-      <c r="R4" s="45">
+      <c r="R4" s="43">
         <f t="shared" si="1"/>
         <v>6.73398</v>
       </c>
@@ -5179,11 +5170,11 @@
       <c r="O5" s="42">
         <v>0.237</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="49">
         <f t="shared" si="6"/>
         <v>0.2325</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="43">
         <f t="shared" si="1"/>
         <v>4.97195</v>
       </c>
@@ -5247,11 +5238,11 @@
       <c r="O6" s="42">
         <v>0.227</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="49">
         <f t="shared" si="6"/>
         <v>0.252</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="43">
         <f t="shared" si="1"/>
         <v>5.39354</v>
       </c>
@@ -5315,11 +5306,11 @@
       <c r="O7" s="42">
         <v>0.205</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="49">
         <f t="shared" si="6"/>
         <v>0.206</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="43">
         <f t="shared" si="1"/>
         <v>4.39902</v>
       </c>
@@ -5334,7 +5325,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="1:22">
+    <row r="8" ht="28.8" spans="1:22">
       <c r="A8" s="30" t="s">
         <v>23</v>
       </c>
@@ -5383,11 +5374,11 @@
       <c r="O8" s="42">
         <v>0.216</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="49">
         <f t="shared" si="6"/>
         <v>0.21</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="43">
         <f t="shared" si="1"/>
         <v>4.4855</v>
       </c>
@@ -5402,7 +5393,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:22">
+    <row r="9" ht="28.8" spans="1:22">
       <c r="A9" s="30" t="s">
         <v>25</v>
       </c>
@@ -5451,11 +5442,11 @@
       <c r="O9" s="42">
         <v>0.172</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="49">
         <f t="shared" si="6"/>
         <v>0.17</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="43">
         <f t="shared" si="1"/>
         <v>3.6207</v>
       </c>
@@ -5470,7 +5461,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:22">
+    <row r="10" ht="28.8" spans="1:22">
       <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
@@ -5519,11 +5510,11 @@
       <c r="O10" s="42">
         <v>0.243</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="49">
         <f t="shared" si="6"/>
         <v>0.248</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="43">
         <f t="shared" si="1"/>
         <v>5.30706</v>
       </c>
@@ -5567,7 +5558,7 @@
         <f t="shared" si="4"/>
         <v>1.74</v>
       </c>
-      <c r="J11" s="49"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
@@ -5689,7 +5680,7 @@
         <f>($I$11-I14)/$E$12*8*1000/3*100</f>
         <v>1481.48148148149</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="49">
         <v>0.242</v>
       </c>
       <c r="M14" s="51">
@@ -5702,11 +5693,11 @@
       <c r="O14" s="42">
         <v>0.487</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="49">
         <f t="shared" ref="Q14" si="9">AVERAGE(N14:P14)</f>
         <v>0.495</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="43">
         <f>(108.1*Q14-0.2735)/5</f>
         <v>10.6472</v>
       </c>
@@ -5744,24 +5735,24 @@
         <f>($I$11-I15)/$E$12*8*1000/3*10</f>
         <v>774.928774928775</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="49">
         <v>0.084</v>
       </c>
       <c r="M15" s="51">
         <f t="shared" ref="M15:M20" si="12">(K15*0.2816-0.0144)/1*1000*10</f>
         <v>92.544</v>
       </c>
-      <c r="N15" s="44">
+      <c r="N15" s="45">
         <v>0.379</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="45">
         <v>0.363</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="49">
         <f t="shared" ref="Q15:Q20" si="13">AVERAGE(N15:P15)</f>
         <v>0.371</v>
       </c>
-      <c r="R15" s="45">
+      <c r="R15" s="43">
         <f t="shared" ref="R15:R20" si="14">(108.1*Q15-0.2735)/5</f>
         <v>7.96632</v>
       </c>
@@ -5799,7 +5790,7 @@
         <f t="shared" ref="J16:J20" si="15">($I$11-I16)/$E$12*8*1000/3*10</f>
         <v>888.888888888889</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="49">
         <v>0.089</v>
       </c>
       <c r="M16" s="51">
@@ -5812,11 +5803,11 @@
       <c r="O16" s="42">
         <v>0.395</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="49">
         <f t="shared" si="13"/>
         <v>0.3995</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="43">
         <f t="shared" si="14"/>
         <v>8.58249</v>
       </c>
@@ -5854,7 +5845,7 @@
         <f t="shared" si="15"/>
         <v>1310.54131054131</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="49">
         <v>0.089</v>
       </c>
       <c r="M17" s="51">
@@ -5867,11 +5858,11 @@
       <c r="O17" s="42">
         <v>0.415</v>
       </c>
-      <c r="Q17" s="50">
+      <c r="Q17" s="49">
         <f t="shared" si="13"/>
         <v>0.41</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="43">
         <f t="shared" si="14"/>
         <v>8.8095</v>
       </c>
@@ -5909,7 +5900,7 @@
         <f>($I$11-I18)/$E$12*8*1000/3*100</f>
         <v>3532.76353276354</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="49">
         <v>0.254</v>
       </c>
       <c r="M18" s="51">
@@ -5922,11 +5913,11 @@
       <c r="O18" s="42">
         <v>0.523</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="49">
         <f t="shared" si="13"/>
         <v>0.5225</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="43">
         <f t="shared" si="14"/>
         <v>11.24175</v>
       </c>
@@ -5964,7 +5955,7 @@
         <f t="shared" si="15"/>
         <v>547.00854700855</v>
       </c>
-      <c r="K19" s="50">
+      <c r="K19" s="49">
         <v>0.255</v>
       </c>
       <c r="M19" s="51">
@@ -5977,11 +5968,11 @@
       <c r="O19" s="42">
         <v>0.637</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="49">
         <f t="shared" si="13"/>
         <v>0.6355</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="43">
         <f t="shared" si="14"/>
         <v>13.68481</v>
       </c>
@@ -6019,7 +6010,7 @@
         <f t="shared" si="15"/>
         <v>1333.33333333333</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="49">
         <v>0.28</v>
       </c>
       <c r="M20" s="51">
@@ -6032,11 +6023,11 @@
       <c r="O20" s="42">
         <v>0.789</v>
       </c>
-      <c r="Q20" s="50">
+      <c r="Q20" s="49">
         <f t="shared" si="13"/>
         <v>0.783</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="43">
         <f t="shared" si="14"/>
         <v>16.87376</v>
       </c>
@@ -6062,7 +6053,7 @@
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="R21" s="45"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="30"/>
@@ -6121,17 +6112,17 @@
   <sheetPr/>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.88333333333333" style="27"/>
-    <col min="3" max="12" width="8.88333333333333" style="27" customWidth="1"/>
-    <col min="13" max="13" width="8.88333333333333" style="27"/>
-    <col min="14" max="20" width="8.88333333333333" style="27" customWidth="1"/>
-    <col min="21" max="16384" width="8.88333333333333" style="27"/>
+    <col min="1" max="2" width="8.87962962962963" style="27"/>
+    <col min="3" max="12" width="8.87962962962963" style="27" customWidth="1"/>
+    <col min="13" max="13" width="8.87962962962963" style="27"/>
+    <col min="14" max="20" width="8.87962962962963" style="27" customWidth="1"/>
+    <col min="21" max="16384" width="8.87962962962963" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -6292,7 +6283,7 @@
         <f>AVERAGE(Q3:S3)</f>
         <v>0.844</v>
       </c>
-      <c r="U3" s="45">
+      <c r="U3" s="43">
         <f>(108.1*T3-0.2735)/5</f>
         <v>18.19258</v>
       </c>
@@ -6360,18 +6351,18 @@
         <f t="shared" ref="P4:P10" si="5">(N4*0.2816-0.0144)/5*1000</f>
         <v>27.64544</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="Q4" s="44">
         <v>0.495</v>
       </c>
-      <c r="R4" s="43">
+      <c r="R4" s="44">
         <v>0.487</v>
       </c>
-      <c r="S4" s="44"/>
+      <c r="S4" s="45"/>
       <c r="T4" s="42">
         <f t="shared" ref="T4:T10" si="6">AVERAGE(Q4:S4)</f>
         <v>0.491</v>
       </c>
-      <c r="U4" s="45">
+      <c r="U4" s="43">
         <f t="shared" ref="U4:U10" si="7">(108.1*T4-0.2735)/5</f>
         <v>10.56072</v>
       </c>
@@ -6450,7 +6441,7 @@
         <f t="shared" si="6"/>
         <v>0.209</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="43">
         <f t="shared" si="7"/>
         <v>4.46388</v>
       </c>
@@ -6529,7 +6520,7 @@
         <f t="shared" si="6"/>
         <v>0.451</v>
       </c>
-      <c r="U6" s="45">
+      <c r="U6" s="43">
         <f t="shared" si="7"/>
         <v>9.69592</v>
       </c>
@@ -6608,7 +6599,7 @@
         <f t="shared" si="6"/>
         <v>0.4385</v>
       </c>
-      <c r="U7" s="45">
+      <c r="U7" s="43">
         <f t="shared" si="7"/>
         <v>9.42567</v>
       </c>
@@ -6623,7 +6614,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="1:25">
+    <row r="8" ht="28.8" spans="1:25">
       <c r="A8" s="30" t="s">
         <v>23</v>
       </c>
@@ -6687,7 +6678,7 @@
         <f t="shared" si="6"/>
         <v>0.2345</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="43">
         <f t="shared" si="7"/>
         <v>5.01519</v>
       </c>
@@ -6702,7 +6693,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:25">
+    <row r="9" ht="28.8" spans="1:25">
       <c r="A9" s="30" t="s">
         <v>25</v>
       </c>
@@ -6766,7 +6757,7 @@
         <f t="shared" si="6"/>
         <v>0.2475</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="43">
         <f t="shared" si="7"/>
         <v>5.29625</v>
       </c>
@@ -6781,7 +6772,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:25">
+    <row r="10" ht="28.8" spans="1:25">
       <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
@@ -6845,7 +6836,7 @@
         <f t="shared" si="6"/>
         <v>0.3715</v>
       </c>
-      <c r="U10" s="45">
+      <c r="U10" s="43">
         <f t="shared" si="7"/>
         <v>7.97713</v>
       </c>
@@ -7120,7 +7111,7 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
@@ -7331,16 +7322,16 @@
   <sheetPr/>
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="16" max="16" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:25">
+    <row r="1" ht="15.9" spans="1:25">
       <c r="A1" s="1">
         <v>42848</v>
       </c>
@@ -7383,7 +7374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:25">
+    <row r="2" ht="15.9" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -7436,7 +7427,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" ht="15.75" spans="1:25">
+    <row r="3" ht="15.9" spans="1:25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -7513,7 +7504,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:25">
+    <row r="4" ht="15.9" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -7592,7 +7583,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:25">
+    <row r="5" ht="15.9" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -7671,7 +7662,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:25">
+    <row r="6" ht="15.9" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -7750,7 +7741,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:25">
+    <row r="7" ht="15.9" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -7829,7 +7820,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:25">
+    <row r="8" ht="30.3" spans="1:25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -7908,7 +7899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:25">
+    <row r="9" ht="30.3" spans="1:25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -7987,7 +7978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:25">
+    <row r="10" ht="30.3" spans="1:25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -8066,7 +8057,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:25">
+    <row r="11" ht="15.9" spans="1:25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -8119,7 +8110,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" ht="15.75" spans="1:25">
+    <row r="12" ht="15.9" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -8155,7 +8146,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" ht="15" spans="1:25">
+    <row r="13" ht="15.15" spans="1:25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8207,18 +8198,18 @@
   <sheetPr/>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.1296296296296" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="16" width="10.125" style="11"/>
-    <col min="17" max="17" width="11.375" style="11"/>
-    <col min="18" max="16384" width="10.125" style="11"/>
+    <col min="1" max="16" width="10.1296296296296" style="11"/>
+    <col min="17" max="17" width="11.3796296296296" style="11"/>
+    <col min="18" max="16384" width="10.1296296296296" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:25">
+    <row r="1" ht="15.9" spans="1:25">
       <c r="A1" s="12">
         <v>4.24</v>
       </c>
@@ -8261,7 +8252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:25">
+    <row r="2" ht="15.9" spans="1:25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
@@ -8314,7 +8305,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="12"/>
     </row>
-    <row r="3" ht="15.75" spans="1:25">
+    <row r="3" ht="15.9" spans="1:25">
       <c r="A3" s="13"/>
       <c r="B3" s="13" t="s">
         <v>13</v>
@@ -8396,7 +8387,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:25">
+    <row r="4" ht="15.9" spans="1:25">
       <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
@@ -8480,7 +8471,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:25">
+    <row r="5" ht="15.9" spans="1:25">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -8564,7 +8555,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:25">
+    <row r="6" ht="15.9" spans="1:25">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -8648,7 +8639,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:25">
+    <row r="7" ht="15.9" spans="1:25">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -8732,7 +8723,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:25">
+    <row r="8" ht="30.3" spans="1:25">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
@@ -8816,7 +8807,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:25">
+    <row r="9" ht="30.3" spans="1:25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -8900,7 +8891,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:25">
+    <row r="10" ht="30.3" spans="1:25">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -8984,7 +8975,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:25">
+    <row r="11" ht="15.9" spans="1:25">
       <c r="A11" s="13"/>
       <c r="B11" s="13" t="s">
         <v>29</v>
@@ -9037,7 +9028,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" ht="15.75" spans="1:25">
+    <row r="12" ht="15.9" spans="1:25">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
@@ -9217,16 +9208,16 @@
   <sheetPr/>
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="17" max="17" width="12.625"/>
+    <col min="17" max="17" width="12.6296296296296"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:25">
+    <row r="1" ht="15.9" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -9267,7 +9258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:25">
+    <row r="2" ht="15.9" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -9319,7 +9310,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" ht="15.75" spans="1:25">
+    <row r="3" ht="15.9" spans="1:25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -9401,7 +9392,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:25">
+    <row r="4" ht="15.9" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -9485,7 +9476,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:25">
+    <row r="5" ht="15.9" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -9569,7 +9560,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:25">
+    <row r="6" ht="15.9" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -9653,7 +9644,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:25">
+    <row r="7" ht="15.9" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -9737,7 +9728,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:25">
+    <row r="8" ht="30.3" spans="1:25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -9821,7 +9812,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:25">
+    <row r="9" ht="30.3" spans="1:25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -9905,7 +9896,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:25">
+    <row r="10" ht="30.3" spans="1:25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -9989,7 +9980,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:25">
+    <row r="11" ht="15.9" spans="1:25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -10042,7 +10033,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" ht="15.75" spans="1:25">
+    <row r="12" ht="15.9" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -10078,7 +10069,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" ht="15" spans="1:25">
+    <row r="13" ht="15.15" spans="1:25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -10134,12 +10125,12 @@
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="17" max="17" width="12.625"/>
+    <col min="17" max="17" width="12.6296296296296"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:25">
+    <row r="1" ht="15.9" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -10180,7 +10171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:25">
+    <row r="2" ht="15.9" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -10233,7 +10224,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" ht="15.75" spans="1:25">
+    <row r="3" ht="15.9" spans="1:25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -10315,7 +10306,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:25">
+    <row r="4" ht="15.9" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -10399,7 +10390,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:25">
+    <row r="5" ht="15.9" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -10483,7 +10474,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:25">
+    <row r="6" ht="15.9" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -10567,7 +10558,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:25">
+    <row r="7" ht="15.9" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -10651,7 +10642,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:25">
+    <row r="8" ht="30.3" spans="1:25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -10735,7 +10726,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:25">
+    <row r="9" ht="30.3" spans="1:25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -10819,7 +10810,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:25">
+    <row r="10" ht="30.3" spans="1:25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -10903,7 +10894,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:25">
+    <row r="11" ht="15.9" spans="1:25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -10956,7 +10947,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" ht="15.75" spans="1:25">
+    <row r="12" ht="15.9" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -10992,7 +10983,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" ht="15" spans="1:25">
+    <row r="13" ht="15.15" spans="1:25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -11044,16 +11035,16 @@
   <sheetPr/>
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="17" max="17" width="12.625"/>
+    <col min="17" max="17" width="12.6296296296296"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:25">
+    <row r="1" ht="15.9" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -11094,7 +11085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:25">
+    <row r="2" ht="15.9" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -11146,7 +11137,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" ht="15.75" spans="1:25">
+    <row r="3" ht="15.9" spans="1:25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -11228,7 +11219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:25">
+    <row r="4" ht="15.9" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -11312,7 +11303,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:25">
+    <row r="5" ht="15.9" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -11396,7 +11387,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:25">
+    <row r="6" ht="15.9" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -11480,7 +11471,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:25">
+    <row r="7" ht="15.9" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -11564,7 +11555,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:25">
+    <row r="8" ht="30.3" spans="1:25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -11648,7 +11639,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:25">
+    <row r="9" ht="30.3" spans="1:25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -11732,7 +11723,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:25">
+    <row r="10" ht="30.3" spans="1:25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -11816,7 +11807,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:25">
+    <row r="11" ht="15.9" spans="1:25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -11869,7 +11860,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" ht="15.75" spans="1:25">
+    <row r="12" ht="15.9" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -11905,7 +11896,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" ht="15" spans="1:25">
+    <row r="13" ht="15.15" spans="1:25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
